--- a/players_data.xlsx
+++ b/players_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,40 +692,40 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>aot_3</t>
+          <t>boboiboy_8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jean Kirstein</t>
+          <t>Fang</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>aot</t>
+          <t>boboiboy</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>boboiboy_8</t>
+          <t>boboiboy_1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fang</t>
+          <t>Gopal</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -733,7 +733,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -742,18 +742,18 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>boboiboy_1</t>
+          <t>boboiboy_10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gopal</t>
+          <t>Boboiboy</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -770,46 +770,46 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>boboiboy_10</t>
+          <t>boruto_8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Boboiboy</t>
+          <t>Mitsuki</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>boboiboy</t>
+          <t>boruto</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>boruto_8</t>
+          <t>boruto_25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mitsuki</t>
+          <t>Shinki</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -826,18 +826,18 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>boruto_25</t>
+          <t>boruto_1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shinki</t>
+          <t>Metal Lee</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -854,18 +854,18 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>boruto_1</t>
+          <t>boruto_17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Metal Lee</t>
+          <t>Naru Shikadai</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -873,7 +873,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -882,18 +882,18 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>boruto_17</t>
+          <t>boruto_12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Naru Shikadai</t>
+          <t>Yamanaka Inojin</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -910,18 +910,18 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>boruto_12</t>
+          <t>boruto_10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Yamanaka Inojin</t>
+          <t>Uzumaki Boruto</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -929,7 +929,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -938,22 +938,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>boruto_10</t>
+          <t>boruto_7</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Uzumaki Boruto</t>
+          <t>Kawaki</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>boruto_7</t>
+          <t>bleach_7</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kawaki</t>
+          <t>Ichigo Kurosaki</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>boruto</t>
+          <t>bleach</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1000,20 +1000,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>bleach_7</t>
+          <t>bleach_1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ichigo Kurosaki</t>
+          <t>Hitsugaya Toshiro</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1022,26 +1022,26 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bleach_8</t>
+          <t>bleach_10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Byakuya Kuchiki</t>
+          <t>Aizen Sosuke</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Midfileder</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1050,26 +1050,26 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bleach_1</t>
+          <t>bleach_5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hitsugaya Toshiro</t>
+          <t>Grimmjow Jaegerjaquez</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1078,31 +1078,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>bleach_10</t>
+          <t>dfc_10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aizen Sosuke</t>
+          <t>Edogawa Conan</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>bleach</t>
+          <t>dfc</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1112,48 +1112,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bleach_5</t>
+          <t>dfc_7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Grimmjow Jaegerjaquez</t>
+          <t>Heiji Hatori</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>bleach</t>
+          <t>dfc</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dfc_10</t>
+          <t>dfc_8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Edogawa Conan</t>
+          <t>Subaru Okiya</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1162,26 +1162,26 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dfc_7</t>
+          <t>dfc_16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Heiji Hatori</t>
+          <t>Mitsuhiko Tsuburaya</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1190,22 +1190,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>dfc_8</t>
+          <t>dfc_17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Subaru Okiya</t>
+          <t>Makoto Kyogoku</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1218,18 +1218,18 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>dfc_16</t>
+          <t>dfc_1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mitsuhiko Tsuburaya</t>
+          <t>Genta Kojima</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1246,46 +1246,46 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dfc_17</t>
+          <t>ds_7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Makoto Kyogoku</t>
+          <t>Zenitsu Agatsuma</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>dfc</t>
+          <t>ds</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>dfc_1</t>
+          <t>ds_1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Genta Kojima</t>
+          <t>Tanjiro Kamado</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>dfc</t>
+          <t>ds</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1308,12 +1308,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ds_10</t>
+          <t>doraemon_10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Giyuu Tomioka</t>
+          <t>Doraemon</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>doraemon</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1336,16 +1336,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ds_7</t>
+          <t>doraemon_7</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Zenitsu Agatsuma</t>
+          <t>Nobita Nobi</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>doraemon</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1364,72 +1364,72 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ds_16</t>
+          <t>doraemon_8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sanemi Shinazugawa</t>
+          <t>Dekisugi Hidetoshi</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Attacking Midfielder</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>doraemon</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ds_1</t>
+          <t>doraemon_11</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tanjiro Kamado</t>
+          <t>Suneo Honekawa</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>doraemon</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ds_30</t>
+          <t>doraemon_1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tengen Uzui</t>
+          <t>Takeshi Gouda</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1438,35 +1438,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>doraemon</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>doraemon_10</t>
+          <t>dbz_10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Doraemon</t>
+          <t>Son Gohan</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>doraemon</t>
+          <t>dbz</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1476,16 +1476,16 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>doraemon_7</t>
+          <t>dbz_7</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nobita Nobi</t>
+          <t>Trunks</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>doraemon</t>
+          <t>dbz</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1504,25 +1504,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>doraemon_8</t>
+          <t>dbz_8</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dekisugi Hidetoshi</t>
+          <t>Krillin</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Attacking Midfielder</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>doraemon</t>
+          <t>dbz</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1532,16 +1532,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>doraemon_11</t>
+          <t>dbz_6</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Suneo Honekawa</t>
+          <t>Frieza</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1550,58 +1550,58 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>doraemon</t>
+          <t>dbz</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>doraemon_1</t>
+          <t>dbz_17</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Takeshi Gouda</t>
+          <t>Cell</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>doraemon</t>
+          <t>dbz</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>dbz_10</t>
+          <t>dbz_1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Son Gohan</t>
+          <t>Majin Buu</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1610,130 +1610,130 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>dbz_7</t>
+          <t>boboiboy_3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Trunks</t>
+          <t>Probe</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Defensive Midfielder</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>dbz</t>
+          <t>boboiboy</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>dbz_8</t>
+          <t>boboiboy_20</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Krillin</t>
+          <t>Adu Du</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Forward</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>dbz</t>
+          <t>boboiboy</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>dbz_6</t>
+          <t>ft_10</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Frieza</t>
+          <t>Natsu Dragneel</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>dbz</t>
+          <t>ft</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>dbz_17</t>
+          <t>ft_7</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cell</t>
+          <t>Gray Fullbuster</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>dbz</t>
+          <t>ft</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>dbz_1</t>
+          <t>ft_6</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Majin Buu</t>
+          <t>Laxus Dreyar</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1741,83 +1741,83 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>dbz</t>
+          <t>ft</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>boboiboy_3</t>
+          <t>ft_23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Probe</t>
+          <t>Jellal Fernandes</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Defensive Midfielder</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>boboiboy</t>
+          <t>ft</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>boboiboy_20</t>
+          <t>ft_1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Adu Du</t>
+          <t>Gajeel Redfox</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Forward</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>boboiboy</t>
+          <t>ft</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ft_10</t>
+          <t>hxh_10</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Natsu Dragneel</t>
+          <t>Hisoka Morow</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ft</t>
+          <t>hxh</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -1840,12 +1840,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ft_7</t>
+          <t>hxh_7</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gray Fullbuster</t>
+          <t>Killua Zoldyck</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ft</t>
+          <t>hxh</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -1868,16 +1868,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ft_6</t>
+          <t>hxh_11</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Laxus Dreyar</t>
+          <t>Kurapika Kurta</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1886,54 +1886,54 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ft</t>
+          <t>hxh</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ft_23</t>
+          <t>hxh_4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jellal Fernandes</t>
+          <t>Chrollo Lucifer</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ft</t>
+          <t>hxh</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ft_1</t>
+          <t>hxh_1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gajeel Redfox</t>
+          <t>Gon Freecs</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ft</t>
+          <t>hxh</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -1952,128 +1952,128 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>hxh_10</t>
+          <t>ie_11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hisoka Morow</t>
+          <t>Kiyama Hiroto</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Center Forward</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>hxh</t>
+          <t>ie</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>hxh_7</t>
+          <t>ie_2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Killua Zoldyck</t>
+          <t>Kazemaru Ichirouta</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>hxh</t>
+          <t>ie</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hxh_11</t>
+          <t>ie_10</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kurapika Kurta</t>
+          <t>Gouenji Shuuya</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>hxh</t>
+          <t>ie</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>hxh_4</t>
+          <t>ie_14</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chrollo Lucifer</t>
+          <t>Kidou Yuuto</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>hxh</t>
+          <t>ie</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>hxh_1</t>
+          <t>ie_1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gon Freecs</t>
+          <t>Endou Mamoru</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>hxh</t>
+          <t>ie</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2092,12 +2092,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ie_11</t>
+          <t>ie_20</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Kiyama Hiroto</t>
+          <t>Tachimukai Yuuki</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Center Forward</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2114,50 +2114,50 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ie_2</t>
+          <t>op_7</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Kazemaru Ichirouta</t>
+          <t>Vinsmoke Sanji</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ie</t>
+          <t>op</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ie_10</t>
+          <t>op_10</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gouenji Shuuya</t>
+          <t>Roronoa Zoro</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ie</t>
+          <t>op</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2176,12 +2176,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ie_14</t>
+          <t>op_6</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kidou Yuuto</t>
+          <t>Koby</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2194,54 +2194,54 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ie</t>
+          <t>op</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ie_1</t>
+          <t>op_4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Endou Mamoru</t>
+          <t>Franky</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ie</t>
+          <t>op</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ie_20</t>
+          <t>op_1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tachimukai Yuuki</t>
+          <t>Monkey D. Luffy</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2250,30 +2250,30 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ie</t>
+          <t>op</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>op_7</t>
+          <t>op_23</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Vinsmoke Sanji</t>
+          <t>Jinbei</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>op_10</t>
+          <t>pw_10</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Roronoa Zoro</t>
+          <t>Pikachu</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>pw</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -2316,16 +2316,16 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>op_6</t>
+          <t>pw_6</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Koby</t>
+          <t>Charizard</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>pw</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -2344,16 +2344,16 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>op_4</t>
+          <t>pw_4</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Franky</t>
+          <t>Venusaur</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>pw</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -2372,16 +2372,16 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>op_1</t>
+          <t>pw_1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Monkey D. Luffy</t>
+          <t>Machamp</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>pw</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -2400,40 +2400,40 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>op_23</t>
+          <t>pl_7</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jinbei</t>
+          <t>Landorus</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>pw_10</t>
+          <t>pl_10</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Pikachu</t>
+          <t>Mewtwo</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>pw</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2456,16 +2456,16 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>pw_6</t>
+          <t>pl_9</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Charizard</t>
+          <t>Thundurus</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2474,50 +2474,50 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>pw</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>pw_4</t>
+          <t>pl_11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Venusaur</t>
+          <t>Tornadus</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>pw</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>pw_1</t>
+          <t>pl_1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Machamp</t>
+          <t>Heatran</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>pw</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -2540,16 +2540,16 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>pl_7</t>
+          <t>ta_7</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Landorus</t>
+          <t>Charlotte Katakuri</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>ta</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -2568,25 +2568,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>pl_10</t>
+          <t>ta_10</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mewtwo</t>
+          <t>Trafalgar D. Law</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>ta</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -2596,25 +2596,25 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>pl_9</t>
+          <t>ta_9</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Thundurus</t>
+          <t>Portgas D. Ace</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>ta</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -2624,16 +2624,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>pl_11</t>
+          <t>ta_11</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tornadus</t>
+          <t>Sabo</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>ta</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -2652,48 +2652,48 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>pl_1</t>
+          <t>ta_25</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Heatran</t>
+          <t>Eustass Kid</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Goalkeeper/Midfielder</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>ta</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ta_7</t>
+          <t>ta_1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Charlotte Katakuri</t>
+          <t>Bartholomew Kuma</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2702,31 +2702,31 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ta_10</t>
+          <t>tfs_10</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Trafalgar D. Law</t>
+          <t>Tsubasa Ozora</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>tfs</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -2736,16 +2736,16 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ta_9</t>
+          <t>tfs_9</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Portgas D. Ace</t>
+          <t>Kojiro Hyuga</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>tfs</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -2764,16 +2764,16 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ta_11</t>
+          <t>tfs_14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sabo</t>
+          <t>Jun Mizugi</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2782,54 +2782,54 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>tfs</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ta_25</t>
+          <t>tfs_12</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Eustass Kid</t>
+          <t>Hikaru Matsuyama</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Goalkeeper/Midfielder</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>tfs</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ta_1</t>
+          <t>tfs_25</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Bartholomew Kuma</t>
+          <t>Ken Wakashimazu</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2838,22 +2838,22 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>tfs</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>tfs_10</t>
+          <t>tfs_1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tsubasa Ozora</t>
+          <t>Genzo Wakabayashi</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tfs_9</t>
+          <t>ds_17</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Kojiro Hyuga</t>
+          <t>Inosuke Hashibira</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2894,179 +2894,179 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>tfs</t>
+          <t>ds</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tfs_14</t>
+          <t>pw_9</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Jun Mizugi</t>
+          <t>Arcanine</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Striker</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>tfs</t>
+          <t>pw</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>tfs_12</t>
+          <t>bleach_8</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hikaru Matsuyama</t>
+          <t>Byakuya Kuchiki</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>tfs</t>
+          <t>bleach</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>tfs_25</t>
+          <t>aot_3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ken Wakashimazu</t>
+          <t>Jean Kirstein</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>tfs</t>
+          <t>aot</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>tfs_1</t>
+          <t>ds_10</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Genzo Wakabayashi</t>
+          <t>Giyuu Tomioka</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>tfs</t>
+          <t>ds</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ds_17</t>
+          <t>ds_16</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Inosuke Hashibira</t>
+          <t>Sanemi Shinazugawa</t>
         </is>
       </c>
       <c r="C93" t="n">
+        <v>22</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
         <v>16</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Striker</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>ds</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>pw_9</t>
+          <t>ds_30</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Arcanine</t>
+          <t>Tengen Uzui</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Striker</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>pw</t>
+          <t>ds</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
@@ -3235,6 +3235,34 @@
       </c>
       <c r="F100" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ft_5</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Elfman Strauss</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>23</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>ft</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/players_data.xlsx
+++ b/players_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,12 @@
     <t>Yosuke Hirata</t>
   </si>
   <si>
+    <t>cote_3</t>
+  </si>
+  <si>
+    <t>Rokusuke Koenji</t>
+  </si>
+  <si>
     <t>aot_10</t>
   </si>
   <si>
@@ -710,6 +716,165 @@
   </si>
   <si>
     <t>Dzul</t>
+  </si>
+  <si>
+    <t>opm_9</t>
+  </si>
+  <si>
+    <t>Saitama</t>
+  </si>
+  <si>
+    <t>opm</t>
+  </si>
+  <si>
+    <t>opm_10</t>
+  </si>
+  <si>
+    <t>Genos</t>
+  </si>
+  <si>
+    <t>opm_7</t>
+  </si>
+  <si>
+    <t>Sonic</t>
+  </si>
+  <si>
+    <t>opm_11</t>
+  </si>
+  <si>
+    <t>Garou</t>
+  </si>
+  <si>
+    <t>opm_13</t>
+  </si>
+  <si>
+    <t>Flashy Flash</t>
+  </si>
+  <si>
+    <t>opm_1</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>csc_10</t>
+  </si>
+  <si>
+    <t>Shinnosuke Nohara</t>
+  </si>
+  <si>
+    <t>csc</t>
+  </si>
+  <si>
+    <t>csc_8</t>
+  </si>
+  <si>
+    <t>Kagura Karatachi</t>
+  </si>
+  <si>
+    <t>csc_7</t>
+  </si>
+  <si>
+    <t>Kirigaya Kazuto</t>
+  </si>
+  <si>
+    <t>csc_11</t>
+  </si>
+  <si>
+    <t>Murkrow</t>
+  </si>
+  <si>
+    <t>csc_1</t>
+  </si>
+  <si>
+    <t>Sudowoodo</t>
+  </si>
+  <si>
+    <t>jjk_10</t>
+  </si>
+  <si>
+    <t>Itadori Yuuji</t>
+  </si>
+  <si>
+    <t>jjk</t>
+  </si>
+  <si>
+    <t>jjk_7</t>
+  </si>
+  <si>
+    <t>Megumi Fushiguro</t>
+  </si>
+  <si>
+    <t>jjk_8</t>
+  </si>
+  <si>
+    <t>Toge</t>
+  </si>
+  <si>
+    <t>jjk_11</t>
+  </si>
+  <si>
+    <t>Yuta Okkotsu</t>
+  </si>
+  <si>
+    <t>jjk_25</t>
+  </si>
+  <si>
+    <t>Gojo Satoru</t>
+  </si>
+  <si>
+    <t>dn_10</t>
+  </si>
+  <si>
+    <t>L Lawliet</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>dn_7</t>
+  </si>
+  <si>
+    <t>Light Yagami</t>
+  </si>
+  <si>
+    <t>dn_1</t>
+  </si>
+  <si>
+    <t>Ryuk</t>
+  </si>
+  <si>
+    <t>dn_6</t>
+  </si>
+  <si>
+    <t>Nate River</t>
+  </si>
+  <si>
+    <t>efc_1</t>
+  </si>
+  <si>
+    <t>Ken Sudo</t>
+  </si>
+  <si>
+    <t>efc</t>
+  </si>
+  <si>
+    <t>efc_8</t>
+  </si>
+  <si>
+    <t>Haruki Yamauchi</t>
+  </si>
+  <si>
+    <t>efc_10</t>
+  </si>
+  <si>
+    <t>Ryomen Sukuna</t>
+  </si>
+  <si>
+    <t>efc_9</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -785,7 +950,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -799,6 +964,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1881,7 +2049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2003,36 +2171,36 @@
         <v>19</v>
       </c>
       <c r="C6" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s" s="3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="C7" s="4">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>20</v>
-      </c>
       <c r="F7" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -2043,16 +2211,16 @@
         <v>24</v>
       </c>
       <c r="C8" s="4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s" s="3">
         <v>12</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -2063,16 +2231,16 @@
         <v>26</v>
       </c>
       <c r="C9" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="4">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
@@ -2083,56 +2251,56 @@
         <v>28</v>
       </c>
       <c r="C10" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="C11" s="4">
         <v>31</v>
       </c>
-      <c r="C11" s="4">
-        <v>16</v>
-      </c>
       <c r="D11" t="s" s="3">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s" s="3">
         <v>33</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>34</v>
       </c>
       <c r="C12" s="4">
         <v>16</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
@@ -2146,13 +2314,13 @@
         <v>16</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
@@ -2163,76 +2331,76 @@
         <v>38</v>
       </c>
       <c r="C14" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="C15" s="4">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="C15" s="4">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s" s="3">
-        <v>42</v>
-      </c>
       <c r="E15" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="C16" s="4">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="C16" s="4">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s" s="3">
-        <v>12</v>
-      </c>
       <c r="E16" t="s" s="3">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s" s="3">
         <v>46</v>
-      </c>
-      <c r="B17" t="s" s="3">
-        <v>47</v>
       </c>
       <c r="C17" s="4">
         <v>18</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="4">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
@@ -2249,10 +2417,10 @@
         <v>15</v>
       </c>
       <c r="E18" t="s" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
@@ -2266,13 +2434,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
@@ -2289,10 +2457,10 @@
         <v>12</v>
       </c>
       <c r="E20" t="s" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
@@ -2306,13 +2474,13 @@
         <v>18</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
@@ -2323,16 +2491,16 @@
         <v>57</v>
       </c>
       <c r="C22" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s" s="3">
         <v>8</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
@@ -2343,13 +2511,13 @@
         <v>59</v>
       </c>
       <c r="C23" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s" s="3">
         <v>8</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F23" s="4">
         <v>7</v>
@@ -2357,22 +2525,22 @@
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s" s="3">
         <v>61</v>
-      </c>
-      <c r="B24" t="s" s="3">
-        <v>62</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F24" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
@@ -2383,16 +2551,16 @@
         <v>64</v>
       </c>
       <c r="C25" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
@@ -2406,13 +2574,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
@@ -2423,16 +2591,16 @@
         <v>68</v>
       </c>
       <c r="C27" s="4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s" s="3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
@@ -2443,36 +2611,36 @@
         <v>70</v>
       </c>
       <c r="C28" s="4">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F28" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="C29" s="4">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="3">
         <v>73</v>
       </c>
-      <c r="C29" s="4">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s" s="3">
-        <v>71</v>
-      </c>
       <c r="F29" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
@@ -2483,16 +2651,16 @@
         <v>75</v>
       </c>
       <c r="C30" s="4">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
@@ -2503,16 +2671,16 @@
         <v>77</v>
       </c>
       <c r="C31" s="4">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s" s="3">
         <v>12</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="13.55" customHeight="1">
@@ -2523,16 +2691,16 @@
         <v>79</v>
       </c>
       <c r="C32" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s" s="3">
         <v>12</v>
       </c>
       <c r="E32" t="s" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
@@ -2543,16 +2711,16 @@
         <v>81</v>
       </c>
       <c r="C33" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="13.55" customHeight="1">
@@ -2563,36 +2731,36 @@
         <v>83</v>
       </c>
       <c r="C34" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s" s="3">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F34" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s" s="3">
         <v>85</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="C35" s="4">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s" s="3">
         <v>86</v>
       </c>
-      <c r="C35" s="4">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s" s="3">
-        <v>84</v>
-      </c>
       <c r="F35" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" ht="13.55" customHeight="1">
@@ -2603,16 +2771,16 @@
         <v>88</v>
       </c>
       <c r="C36" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="4">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" ht="13.55" customHeight="1">
@@ -2623,16 +2791,16 @@
         <v>90</v>
       </c>
       <c r="C37" s="4">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="F37" s="4">
         <v>16</v>
-      </c>
-      <c r="D37" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E37" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="38" ht="13.55" customHeight="1">
@@ -2643,16 +2811,16 @@
         <v>92</v>
       </c>
       <c r="C38" s="4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s" s="3">
         <v>15</v>
       </c>
       <c r="E38" t="s" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F38" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="13.55" customHeight="1">
@@ -2663,16 +2831,16 @@
         <v>94</v>
       </c>
       <c r="C39" s="4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F39" s="4">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="13.55" customHeight="1">
@@ -2683,36 +2851,36 @@
         <v>96</v>
       </c>
       <c r="C40" s="4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s" s="3">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F40" s="4">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="13.55" customHeight="1">
       <c r="A41" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s" s="3">
         <v>98</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="C41" s="4">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s" s="3">
         <v>99</v>
       </c>
-      <c r="C41" s="4">
-        <v>23</v>
-      </c>
-      <c r="D41" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s" s="3">
-        <v>97</v>
-      </c>
       <c r="F41" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="13.55" customHeight="1">
@@ -2726,33 +2894,33 @@
         <v>23</v>
       </c>
       <c r="D42" t="s" s="3">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F42" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s" s="3">
         <v>103</v>
-      </c>
-      <c r="B43" t="s" s="3">
-        <v>104</v>
       </c>
       <c r="C43" s="4">
         <v>23</v>
       </c>
       <c r="D43" t="s" s="3">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F43" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.55" customHeight="1">
@@ -2766,13 +2934,13 @@
         <v>23</v>
       </c>
       <c r="D44" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F44" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="13.55" customHeight="1">
@@ -2783,24 +2951,24 @@
         <v>108</v>
       </c>
       <c r="C45" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s" s="3">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F45" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s" s="3">
         <v>110</v>
-      </c>
-      <c r="B46" t="s" s="3">
-        <v>111</v>
       </c>
       <c r="C46" s="4">
         <v>18</v>
@@ -2809,10 +2977,10 @@
         <v>8</v>
       </c>
       <c r="E46" t="s" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F46" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" ht="13.55" customHeight="1">
@@ -2823,16 +2991,16 @@
         <v>113</v>
       </c>
       <c r="C47" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F47" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" ht="13.55" customHeight="1">
@@ -2843,16 +3011,16 @@
         <v>115</v>
       </c>
       <c r="C48" s="4">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s" s="3">
         <v>12</v>
       </c>
       <c r="E48" t="s" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F48" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="13.55" customHeight="1">
@@ -2863,16 +3031,16 @@
         <v>117</v>
       </c>
       <c r="C49" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s" s="3">
         <v>12</v>
       </c>
       <c r="E49" t="s" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F49" s="4">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.55" customHeight="1">
@@ -2883,16 +3051,16 @@
         <v>119</v>
       </c>
       <c r="C50" s="4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F50" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.55" customHeight="1">
@@ -2903,36 +3071,36 @@
         <v>121</v>
       </c>
       <c r="C51" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s" s="3">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F51" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="13.55" customHeight="1">
       <c r="A52" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s" s="3">
         <v>123</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="C52" s="4">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="C52" s="4">
-        <v>23</v>
-      </c>
-      <c r="D52" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s" s="3">
-        <v>122</v>
-      </c>
       <c r="F52" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" ht="13.55" customHeight="1">
@@ -2943,16 +3111,16 @@
         <v>126</v>
       </c>
       <c r="C53" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s" s="3">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F53" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" ht="13.55" customHeight="1">
@@ -2963,16 +3131,16 @@
         <v>128</v>
       </c>
       <c r="C54" s="4">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s" s="3">
         <v>12</v>
       </c>
       <c r="E54" t="s" s="3">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F54" s="4">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.55" customHeight="1">
@@ -2983,16 +3151,16 @@
         <v>130</v>
       </c>
       <c r="C55" s="4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s" s="3">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F55" s="4">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="13.55" customHeight="1">
@@ -3003,16 +3171,16 @@
         <v>132</v>
       </c>
       <c r="C56" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s" s="3">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F56" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="13.55" customHeight="1">
@@ -3023,36 +3191,36 @@
         <v>134</v>
       </c>
       <c r="C57" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s" s="3">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F57" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" ht="13.55" customHeight="1">
       <c r="A58" t="s" s="3">
+        <v>135</v>
+      </c>
+      <c r="B58" t="s" s="3">
         <v>136</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="C58" s="4">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s" s="3">
         <v>137</v>
       </c>
-      <c r="C58" s="4">
-        <v>23</v>
-      </c>
-      <c r="D58" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s" s="3">
-        <v>135</v>
-      </c>
       <c r="F58" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" ht="13.55" customHeight="1">
@@ -3066,13 +3234,13 @@
         <v>23</v>
       </c>
       <c r="D59" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s" s="3">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F59" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" ht="13.55" customHeight="1">
@@ -3083,16 +3251,16 @@
         <v>141</v>
       </c>
       <c r="C60" s="4">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s" s="3">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F60" s="4">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="13.55" customHeight="1">
@@ -3103,16 +3271,16 @@
         <v>143</v>
       </c>
       <c r="C61" s="4">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s" s="3">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s" s="3">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F61" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" ht="13.55" customHeight="1">
@@ -3123,36 +3291,36 @@
         <v>145</v>
       </c>
       <c r="C62" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s" s="3">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s" s="3">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F62" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="13.55" customHeight="1">
       <c r="A63" t="s" s="3">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s" s="3">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C63" s="4">
         <v>20</v>
       </c>
       <c r="D63" t="s" s="3">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="E63" t="s" s="3">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F63" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="13.55" customHeight="1">
@@ -3166,13 +3334,13 @@
         <v>20</v>
       </c>
       <c r="D64" t="s" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s" s="3">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F64" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" ht="13.55" customHeight="1">
@@ -3186,13 +3354,13 @@
         <v>20</v>
       </c>
       <c r="D65" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s" s="3">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F65" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="13.55" customHeight="1">
@@ -3206,13 +3374,13 @@
         <v>20</v>
       </c>
       <c r="D66" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s" s="3">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F66" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.55" customHeight="1">
@@ -3229,10 +3397,10 @@
         <v>15</v>
       </c>
       <c r="E67" t="s" s="3">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F67" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="13.55" customHeight="1">
@@ -3243,24 +3411,24 @@
         <v>159</v>
       </c>
       <c r="C68" s="4">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s" s="3">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F68" s="4">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="13.55" customHeight="1">
       <c r="A69" t="s" s="3">
+        <v>160</v>
+      </c>
+      <c r="B69" t="s" s="3">
         <v>161</v>
-      </c>
-      <c r="B69" t="s" s="3">
-        <v>162</v>
       </c>
       <c r="C69" s="4">
         <v>26</v>
@@ -3269,10 +3437,10 @@
         <v>8</v>
       </c>
       <c r="E69" t="s" s="3">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F69" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" ht="13.55" customHeight="1">
@@ -3283,16 +3451,16 @@
         <v>164</v>
       </c>
       <c r="C70" s="4">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s" s="3">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F70" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" ht="13.55" customHeight="1">
@@ -3303,16 +3471,16 @@
         <v>166</v>
       </c>
       <c r="C71" s="4">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s" s="3">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F71" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" ht="13.55" customHeight="1">
@@ -3323,16 +3491,16 @@
         <v>168</v>
       </c>
       <c r="C72" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s" s="3">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s" s="3">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F72" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" ht="13.55" customHeight="1">
@@ -3343,16 +3511,16 @@
         <v>170</v>
       </c>
       <c r="C73" s="4">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s" s="3">
         <v>15</v>
       </c>
       <c r="E73" t="s" s="3">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F73" s="4">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="13.55" customHeight="1">
@@ -3363,36 +3531,36 @@
         <v>172</v>
       </c>
       <c r="C74" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s" s="3">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F74" s="4">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="13.55" customHeight="1">
       <c r="A75" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="B75" t="s" s="3">
         <v>174</v>
       </c>
-      <c r="B75" t="s" s="3">
+      <c r="C75" s="4">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s" s="3">
         <v>175</v>
       </c>
-      <c r="C75" s="4">
-        <v>22</v>
-      </c>
-      <c r="D75" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E75" t="s" s="3">
-        <v>173</v>
-      </c>
       <c r="F75" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" ht="13.55" customHeight="1">
@@ -3406,13 +3574,13 @@
         <v>22</v>
       </c>
       <c r="D76" t="s" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s" s="3">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F76" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" ht="13.55" customHeight="1">
@@ -3423,16 +3591,16 @@
         <v>179</v>
       </c>
       <c r="C77" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s" s="3">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s" s="3">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F77" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" ht="13.55" customHeight="1">
@@ -3446,13 +3614,13 @@
         <v>20</v>
       </c>
       <c r="D78" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s" s="3">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F78" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" ht="13.55" customHeight="1">
@@ -3469,18 +3637,18 @@
         <v>8</v>
       </c>
       <c r="E79" t="s" s="3">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F79" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="13.55" customHeight="1">
       <c r="A80" t="s" s="3">
+        <v>184</v>
+      </c>
+      <c r="B80" t="s" s="3">
         <v>185</v>
-      </c>
-      <c r="B80" t="s" s="3">
-        <v>186</v>
       </c>
       <c r="C80" s="4">
         <v>20</v>
@@ -3489,10 +3657,10 @@
         <v>8</v>
       </c>
       <c r="E80" t="s" s="3">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F80" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" ht="13.55" customHeight="1">
@@ -3506,13 +3674,13 @@
         <v>20</v>
       </c>
       <c r="D81" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s" s="3">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F81" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" ht="13.55" customHeight="1">
@@ -3529,10 +3697,10 @@
         <v>12</v>
       </c>
       <c r="E82" t="s" s="3">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F82" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="13.55" customHeight="1">
@@ -3546,13 +3714,13 @@
         <v>20</v>
       </c>
       <c r="D83" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s" s="3">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F83" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" ht="13.55" customHeight="1">
@@ -3563,36 +3731,36 @@
         <v>194</v>
       </c>
       <c r="C84" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E84" t="s" s="3">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F84" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" ht="13.55" customHeight="1">
       <c r="A85" t="s" s="3">
+        <v>195</v>
+      </c>
+      <c r="B85" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="C85" s="4">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s" s="3">
         <v>197</v>
       </c>
-      <c r="C85" s="4">
-        <v>23</v>
-      </c>
-      <c r="D85" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E85" t="s" s="3">
-        <v>195</v>
-      </c>
       <c r="F85" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" ht="13.55" customHeight="1">
@@ -3603,16 +3771,16 @@
         <v>199</v>
       </c>
       <c r="C86" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s" s="3">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F86" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.55" customHeight="1">
@@ -3626,13 +3794,13 @@
         <v>25</v>
       </c>
       <c r="D87" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s" s="3">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F87" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.55" customHeight="1">
@@ -3643,36 +3811,36 @@
         <v>203</v>
       </c>
       <c r="C88" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s" s="3">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s" s="3">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F88" s="4">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" ht="13.55" customHeight="1">
       <c r="A89" t="s" s="3">
+        <v>204</v>
+      </c>
+      <c r="B89" t="s" s="3">
         <v>205</v>
       </c>
-      <c r="B89" t="s" s="3">
+      <c r="C89" s="4">
+        <v>23</v>
+      </c>
+      <c r="D89" t="s" s="3">
         <v>206</v>
       </c>
-      <c r="C89" s="4">
-        <v>27</v>
-      </c>
-      <c r="D89" t="s" s="3">
-        <v>15</v>
-      </c>
       <c r="E89" t="s" s="3">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F89" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="13.55" customHeight="1">
@@ -3683,24 +3851,24 @@
         <v>208</v>
       </c>
       <c r="C90" s="4">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D90" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s" s="3">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F90" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" ht="13.55" customHeight="1">
       <c r="A91" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="B91" t="s" s="3">
         <v>210</v>
-      </c>
-      <c r="B91" t="s" s="3">
-        <v>211</v>
       </c>
       <c r="C91" s="4">
         <v>21</v>
@@ -3709,10 +3877,10 @@
         <v>8</v>
       </c>
       <c r="E91" t="s" s="3">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F91" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" ht="13.55" customHeight="1">
@@ -3726,13 +3894,13 @@
         <v>21</v>
       </c>
       <c r="D92" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s" s="3">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F92" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="13.55" customHeight="1">
@@ -3746,13 +3914,13 @@
         <v>21</v>
       </c>
       <c r="D93" t="s" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s" s="3">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F93" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" ht="13.55" customHeight="1">
@@ -3766,13 +3934,13 @@
         <v>21</v>
       </c>
       <c r="D94" t="s" s="3">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E94" t="s" s="3">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F94" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="13.55" customHeight="1">
@@ -3789,10 +3957,10 @@
         <v>15</v>
       </c>
       <c r="E95" t="s" s="3">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F95" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="13.55" customHeight="1">
@@ -3803,36 +3971,36 @@
         <v>221</v>
       </c>
       <c r="C96" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E96" t="s" s="3">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F96" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" ht="13.55" customHeight="1">
       <c r="A97" t="s" s="3">
+        <v>222</v>
+      </c>
+      <c r="B97" t="s" s="3">
         <v>223</v>
-      </c>
-      <c r="B97" t="s" s="3">
-        <v>224</v>
       </c>
       <c r="C97" s="4">
         <v>18</v>
       </c>
       <c r="D97" t="s" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s" s="3">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F97" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" ht="13.55" customHeight="1">
@@ -3846,13 +4014,13 @@
         <v>18</v>
       </c>
       <c r="D98" t="s" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s" s="3">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F98" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="13.55" customHeight="1">
@@ -3866,13 +4034,13 @@
         <v>18</v>
       </c>
       <c r="D99" t="s" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s" s="3">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F99" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" ht="13.55" customHeight="1">
@@ -3886,13 +4054,13 @@
         <v>18</v>
       </c>
       <c r="D100" t="s" s="3">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E100" t="s" s="3">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F100" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.55" customHeight="1">
@@ -3906,14 +4074,570 @@
         <v>18</v>
       </c>
       <c r="D101" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s" s="3">
+        <v>224</v>
+      </c>
+      <c r="F101" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" ht="13.55" customHeight="1">
+      <c r="A102" t="s" s="3">
+        <v>233</v>
+      </c>
+      <c r="B102" t="s" s="3">
+        <v>234</v>
+      </c>
+      <c r="C102" s="4">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="E101" t="s" s="3">
-        <v>222</v>
-      </c>
-      <c r="F101" s="4">
+      <c r="E102" t="s" s="3">
+        <v>224</v>
+      </c>
+      <c r="F102" s="4">
         <v>1</v>
       </c>
+    </row>
+    <row r="103" ht="13.55" customHeight="1">
+      <c r="A103" t="s" s="3">
+        <v>235</v>
+      </c>
+      <c r="B103" t="s" s="3">
+        <v>236</v>
+      </c>
+      <c r="C103" s="4">
+        <v>25</v>
+      </c>
+      <c r="D103" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s" s="3">
+        <v>237</v>
+      </c>
+      <c r="F103" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" ht="13.55" customHeight="1">
+      <c r="A104" t="s" s="3">
+        <v>238</v>
+      </c>
+      <c r="B104" t="s" s="3">
+        <v>239</v>
+      </c>
+      <c r="C104" s="4">
+        <v>19</v>
+      </c>
+      <c r="D104" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s" s="3">
+        <v>237</v>
+      </c>
+      <c r="F104" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" ht="13.55" customHeight="1">
+      <c r="A105" t="s" s="3">
+        <v>240</v>
+      </c>
+      <c r="B105" t="s" s="3">
+        <v>241</v>
+      </c>
+      <c r="C105" s="4">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s" s="3">
+        <v>237</v>
+      </c>
+      <c r="F105" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" ht="13.55" customHeight="1">
+      <c r="A106" t="s" s="3">
+        <v>242</v>
+      </c>
+      <c r="B106" t="s" s="3">
+        <v>243</v>
+      </c>
+      <c r="C106" s="4">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s" s="3">
+        <v>237</v>
+      </c>
+      <c r="F106" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" ht="13.55" customHeight="1">
+      <c r="A107" t="s" s="3">
+        <v>244</v>
+      </c>
+      <c r="B107" t="s" s="3">
+        <v>245</v>
+      </c>
+      <c r="C107" s="4">
+        <v>25</v>
+      </c>
+      <c r="D107" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E107" t="s" s="3">
+        <v>237</v>
+      </c>
+      <c r="F107" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" ht="13.55" customHeight="1">
+      <c r="A108" t="s" s="3">
+        <v>246</v>
+      </c>
+      <c r="B108" t="s" s="3">
+        <v>247</v>
+      </c>
+      <c r="C108" s="4">
+        <v>29</v>
+      </c>
+      <c r="D108" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s" s="3">
+        <v>237</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" ht="13.55" customHeight="1">
+      <c r="A109" t="s" s="3">
+        <v>248</v>
+      </c>
+      <c r="B109" t="s" s="3">
+        <v>249</v>
+      </c>
+      <c r="C109" s="4">
+        <v>19</v>
+      </c>
+      <c r="D109" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s" s="3">
+        <v>250</v>
+      </c>
+      <c r="F109" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" ht="13.55" customHeight="1">
+      <c r="A110" t="s" s="3">
+        <v>251</v>
+      </c>
+      <c r="B110" t="s" s="3">
+        <v>252</v>
+      </c>
+      <c r="C110" s="4">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="E110" t="s" s="3">
+        <v>250</v>
+      </c>
+      <c r="F110" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" ht="13.55" customHeight="1">
+      <c r="A111" t="s" s="3">
+        <v>253</v>
+      </c>
+      <c r="B111" t="s" s="3">
+        <v>254</v>
+      </c>
+      <c r="C111" s="4">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s" s="3">
+        <v>250</v>
+      </c>
+      <c r="F111" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" ht="13.55" customHeight="1">
+      <c r="A112" t="s" s="3">
+        <v>255</v>
+      </c>
+      <c r="B112" t="s" s="3">
+        <v>256</v>
+      </c>
+      <c r="C112" s="4">
+        <v>25</v>
+      </c>
+      <c r="D112" t="s" s="3">
+        <v>148</v>
+      </c>
+      <c r="E112" t="s" s="3">
+        <v>250</v>
+      </c>
+      <c r="F112" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" ht="13.55" customHeight="1">
+      <c r="A113" t="s" s="3">
+        <v>257</v>
+      </c>
+      <c r="B113" t="s" s="3">
+        <v>258</v>
+      </c>
+      <c r="C113" s="4">
+        <v>25</v>
+      </c>
+      <c r="D113" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E113" t="s" s="3">
+        <v>250</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" ht="13.55" customHeight="1">
+      <c r="A114" t="s" s="3">
+        <v>259</v>
+      </c>
+      <c r="B114" t="s" s="3">
+        <v>260</v>
+      </c>
+      <c r="C114" s="4">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s" s="3">
+        <v>261</v>
+      </c>
+      <c r="F114" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" ht="13.55" customHeight="1">
+      <c r="A115" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="B115" t="s" s="3">
+        <v>263</v>
+      </c>
+      <c r="C115" s="4">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="E115" t="s" s="3">
+        <v>261</v>
+      </c>
+      <c r="F115" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" ht="13.55" customHeight="1">
+      <c r="A116" t="s" s="3">
+        <v>264</v>
+      </c>
+      <c r="B116" t="s" s="3">
+        <v>265</v>
+      </c>
+      <c r="C116" s="4">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s" s="3">
+        <v>261</v>
+      </c>
+      <c r="F116" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" ht="13.55" customHeight="1">
+      <c r="A117" t="s" s="3">
+        <v>266</v>
+      </c>
+      <c r="B117" t="s" s="3">
+        <v>267</v>
+      </c>
+      <c r="C117" s="4">
+        <v>19</v>
+      </c>
+      <c r="D117" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s" s="3">
+        <v>261</v>
+      </c>
+      <c r="F117" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" ht="13.55" customHeight="1">
+      <c r="A118" t="s" s="3">
+        <v>268</v>
+      </c>
+      <c r="B118" t="s" s="3">
+        <v>269</v>
+      </c>
+      <c r="C118" s="4">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E118" t="s" s="3">
+        <v>261</v>
+      </c>
+      <c r="F118" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" ht="13.55" customHeight="1">
+      <c r="A119" t="s" s="3">
+        <v>270</v>
+      </c>
+      <c r="B119" t="s" s="3">
+        <v>271</v>
+      </c>
+      <c r="C119" s="4">
+        <v>22</v>
+      </c>
+      <c r="D119" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s" s="3">
+        <v>272</v>
+      </c>
+      <c r="F119" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" ht="13.55" customHeight="1">
+      <c r="A120" t="s" s="3">
+        <v>273</v>
+      </c>
+      <c r="B120" t="s" s="3">
+        <v>274</v>
+      </c>
+      <c r="C120" s="4">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s" s="3">
+        <v>272</v>
+      </c>
+      <c r="F120" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" ht="13.55" customHeight="1">
+      <c r="A121" t="s" s="3">
+        <v>275</v>
+      </c>
+      <c r="B121" t="s" s="3">
+        <v>276</v>
+      </c>
+      <c r="C121" s="4">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s" s="3">
+        <v>272</v>
+      </c>
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" ht="13.55" customHeight="1">
+      <c r="A122" t="s" s="3">
+        <v>277</v>
+      </c>
+      <c r="B122" t="s" s="3">
+        <v>278</v>
+      </c>
+      <c r="C122" s="4">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s" s="3">
+        <v>272</v>
+      </c>
+      <c r="F122" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" ht="13.55" customHeight="1">
+      <c r="A123" t="s" s="3">
+        <v>279</v>
+      </c>
+      <c r="B123" t="s" s="3">
+        <v>280</v>
+      </c>
+      <c r="C123" s="4">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E123" t="s" s="3">
+        <v>281</v>
+      </c>
+      <c r="F123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" ht="13.55" customHeight="1">
+      <c r="A124" t="s" s="3">
+        <v>282</v>
+      </c>
+      <c r="B124" t="s" s="3">
+        <v>283</v>
+      </c>
+      <c r="C124" s="4">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s" s="3">
+        <v>281</v>
+      </c>
+      <c r="F124" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" ht="13.55" customHeight="1">
+      <c r="A125" t="s" s="3">
+        <v>284</v>
+      </c>
+      <c r="B125" t="s" s="3">
+        <v>285</v>
+      </c>
+      <c r="C125" s="4">
+        <v>22</v>
+      </c>
+      <c r="D125" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s" s="3">
+        <v>281</v>
+      </c>
+      <c r="F125" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" ht="13.55" customHeight="1">
+      <c r="A126" t="s" s="3">
+        <v>286</v>
+      </c>
+      <c r="B126" t="s" s="3">
+        <v>287</v>
+      </c>
+      <c r="C126" s="4">
+        <v>18</v>
+      </c>
+      <c r="D126" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E126" t="s" s="3">
+        <v>281</v>
+      </c>
+      <c r="F126" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" ht="13.55" customHeight="1">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" ht="13.55" customHeight="1">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" ht="13.55" customHeight="1">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" ht="13.55" customHeight="1">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" ht="13.55" customHeight="1">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" ht="13.55" customHeight="1">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" ht="13.55" customHeight="1">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
